--- a/YsTool/Excels/UserTemplate.xlsx
+++ b/YsTool/Excels/UserTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="160">
   <si>
     <t>No.</t>
   </si>
@@ -343,10 +343,6 @@
   </si>
   <si>
     <t xml:space="preserve">     LEFT JOIN sys_m_delivery_destination d1 ON (((d1.delv_cd_1 = inf.deli_rep_cd) AND (d1.delv_cd_2 = inf.deli_branch_cd))))</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -467,9 +463,6 @@
     <t>俞30</t>
   </si>
   <si>
-    <t>俞31</t>
-  </si>
-  <si>
     <t>俞01</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -567,9 +560,6 @@
   </si>
   <si>
     <t>192.168.1.30</t>
-  </si>
-  <si>
-    <t>192.168.1.31</t>
   </si>
   <si>
     <t>组ID</t>
@@ -595,6 +585,10 @@
       </rPr>
       <t>码</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CD</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1144,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,6 +1226,45 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,15 +1272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,46 +1319,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1620,604 +1611,492 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="7" customWidth="1"/>
-    <col min="3" max="7" width="10.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="7.875" style="7" customWidth="1"/>
+    <col min="2" max="6" width="10.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30.625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="29">
+        <v>139001</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>139002</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="61" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>139001</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>139003</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="57"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="58">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
-        <v>139002</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>139004</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="58">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <v>139003</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>139005</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="58">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
-        <v>139004</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>139006</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="58">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
-        <v>139005</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>139007</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="58">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>139006</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>139008</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="58">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17">
-        <v>139007</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>139009</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="58">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17">
-        <v>139008</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>139010</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="58">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17">
-        <v>139009</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>139011</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="58">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17">
-        <v>139010</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>139012</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="58">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17">
-        <v>139011</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="29">
+        <v>139013</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="58">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17">
-        <v>139012</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="29">
+        <v>139014</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="58">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17">
-        <v>139013</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
+        <v>139015</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17">
-        <v>139014</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>139016</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="59"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="58">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17">
-        <v>139015</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>139017</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="58">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17">
-        <v>139016</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>139018</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="59"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="58">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17">
-        <v>139017</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>139019</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="59"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="58">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17">
-        <v>139018</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>139020</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="58">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17">
-        <v>139019</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>139021</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="59"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="58">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17">
-        <v>139020</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>139022</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="58">
-        <v>21</v>
-      </c>
-      <c r="B22" s="17">
-        <v>139021</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>139023</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="58">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17">
-        <v>139022</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>139024</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="59"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="58">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17">
-        <v>139023</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="29">
+        <v>139025</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="58">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17">
-        <v>139024</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
+        <v>139026</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="58">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17">
-        <v>139025</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>139027</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="58">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17">
-        <v>139026</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>139028</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="58">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17">
-        <v>139027</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="29">
+        <v>139029</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="58">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17">
-        <v>139028</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62" t="s">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="29">
+        <v>139030</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="59"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="58">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17">
-        <v>139029</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="58">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17">
-        <v>139030</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="58">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17">
-        <v>139031</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="59"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -2260,107 +2139,107 @@
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="55"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2744,404 +2623,414 @@
       <c r="A31" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <v>1</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A33" s="13">
         <v>2</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="13">
         <v>3</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <v>4</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <v>5</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <v>6</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>7</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>8</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>9</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
         <v>10</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
         <v>11</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>12</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>13</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>14</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" s="13">
         <v>15</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A47" s="13">
         <v>16</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>17</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>18</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>19</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A51" s="13">
         <v>20</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A52" s="13">
         <v>21</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>22</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>23</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>24</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A56" s="13">
         <v>25</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A57" s="13">
         <v>26</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A58" s="13">
         <v>27</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A59" s="13">
         <v>28</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="31"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>29</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
@@ -3154,26 +3043,16 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
